--- a/dataanalysis/data/predictions/1200/08181133_1136.xlsx
+++ b/dataanalysis/data/predictions/1200/08181133_1136.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="211">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-18</t>
   </si>
   <si>
@@ -644,12 +647,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1007,13 +1004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH118"/>
+  <dimension ref="A1:AI118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,19 +1113,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300033</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>15.74</v>
@@ -1146,7 +1146,7 @@
         <v>842096.13</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1187,8 +1187,23 @@
       <c r="W2">
         <v>0.4</v>
       </c>
+      <c r="X2">
+        <v>-3.86</v>
+      </c>
+      <c r="Y2">
+        <v>404.99</v>
+      </c>
+      <c r="Z2">
+        <v>-4.71</v>
+      </c>
       <c r="AC2" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1196,22 +1211,25 @@
       <c r="AG2">
         <v>-4.484436988830566</v>
       </c>
-      <c r="AH2" t="s">
-        <v>210</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300066</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>4.96</v>
@@ -1229,7 +1247,7 @@
         <v>75903.28</v>
       </c>
       <c r="J3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1270,8 +1288,23 @@
       <c r="W3">
         <v>0.61</v>
       </c>
+      <c r="X3">
+        <v>-1.26</v>
+      </c>
+      <c r="Y3">
+        <v>7.34</v>
+      </c>
+      <c r="Z3">
+        <v>2.09</v>
+      </c>
       <c r="AC3" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1279,22 +1312,25 @@
       <c r="AG3">
         <v>-0.2515051066875458</v>
       </c>
-      <c r="AH3" t="s">
-        <v>210</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300145</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>4.95</v>
@@ -1312,7 +1348,7 @@
         <v>143756.1</v>
       </c>
       <c r="J4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1353,8 +1389,23 @@
       <c r="W4">
         <v>-0.6</v>
       </c>
+      <c r="X4">
+        <v>-5.31</v>
+      </c>
+      <c r="Y4">
+        <v>5.61</v>
+      </c>
+      <c r="Z4">
+        <v>-2.09</v>
+      </c>
       <c r="AC4" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1362,22 +1413,25 @@
       <c r="AG4">
         <v>-1.138049483299255</v>
       </c>
-      <c r="AH4" t="s">
-        <v>210</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300188</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>3.93</v>
@@ -1395,7 +1449,7 @@
         <v>126964.04</v>
       </c>
       <c r="J5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1436,8 +1490,23 @@
       <c r="W5">
         <v>0.68</v>
       </c>
+      <c r="X5">
+        <v>-1.38</v>
+      </c>
+      <c r="Y5">
+        <v>19.19</v>
+      </c>
+      <c r="Z5">
+        <v>-2.04</v>
+      </c>
       <c r="AC5" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1445,22 +1514,25 @@
       <c r="AG5">
         <v>1.683910369873047</v>
       </c>
-      <c r="AH5" t="s">
-        <v>210</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300196</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>1.69</v>
@@ -1478,7 +1550,7 @@
         <v>38002.92</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1519,8 +1591,23 @@
       <c r="W6">
         <v>0.18</v>
       </c>
+      <c r="X6">
+        <v>-3.14</v>
+      </c>
+      <c r="Y6">
+        <v>16.9</v>
+      </c>
+      <c r="Z6">
+        <v>0.18</v>
+      </c>
       <c r="AC6" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1528,22 +1615,25 @@
       <c r="AG6">
         <v>4.858105659484863</v>
       </c>
-      <c r="AH6" t="s">
-        <v>210</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300199</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>12.74</v>
@@ -1561,7 +1651,7 @@
         <v>354029.59</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K7">
         <v>15</v>
@@ -1602,8 +1692,23 @@
       <c r="W7">
         <v>0.04</v>
       </c>
+      <c r="X7">
+        <v>-2.17</v>
+      </c>
+      <c r="Y7">
+        <v>30.67</v>
+      </c>
+      <c r="Z7">
+        <v>4.39</v>
+      </c>
       <c r="AC7" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1611,22 +1716,25 @@
       <c r="AG7">
         <v>1.864360451698303</v>
       </c>
-      <c r="AH7" t="s">
-        <v>210</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300213</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>2.57</v>
@@ -1644,7 +1752,7 @@
         <v>47303.5</v>
       </c>
       <c r="J8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1685,8 +1793,23 @@
       <c r="W8">
         <v>0.28</v>
       </c>
+      <c r="X8">
+        <v>0.92</v>
+      </c>
+      <c r="Y8">
+        <v>11.09</v>
+      </c>
+      <c r="Z8">
+        <v>-0.89</v>
+      </c>
       <c r="AC8" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1694,22 +1817,25 @@
       <c r="AG8">
         <v>2.77258038520813</v>
       </c>
-      <c r="AH8" t="s">
-        <v>210</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300214</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>3.68</v>
@@ -1727,7 +1853,7 @@
         <v>31340.06</v>
       </c>
       <c r="J9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1768,8 +1894,23 @@
       <c r="W9">
         <v>0.47</v>
       </c>
+      <c r="X9">
+        <v>-4.66</v>
+      </c>
+      <c r="Y9">
+        <v>8.44</v>
+      </c>
+      <c r="Z9">
+        <v>-3.43</v>
+      </c>
       <c r="AC9" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1777,22 +1918,25 @@
       <c r="AG9">
         <v>4.995706081390381</v>
       </c>
-      <c r="AH9" t="s">
-        <v>210</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300218</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>3.99</v>
@@ -1810,7 +1954,7 @@
         <v>36889.46</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -1851,8 +1995,23 @@
       <c r="W10">
         <v>0.49</v>
       </c>
+      <c r="X10">
+        <v>0.35</v>
+      </c>
+      <c r="Y10">
+        <v>23.08</v>
+      </c>
+      <c r="Z10">
+        <v>0.52</v>
+      </c>
       <c r="AC10" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1860,22 +2019,25 @@
       <c r="AG10">
         <v>2.477410793304443</v>
       </c>
-      <c r="AH10" t="s">
-        <v>210</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300224</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>2.23</v>
@@ -1893,7 +2055,7 @@
         <v>133541.9</v>
       </c>
       <c r="J11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1934,8 +2096,23 @@
       <c r="W11">
         <v>-0.34</v>
       </c>
+      <c r="X11">
+        <v>-2.71</v>
+      </c>
+      <c r="Y11">
+        <v>19.45</v>
+      </c>
+      <c r="Z11">
+        <v>3.57</v>
+      </c>
       <c r="AC11" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1943,22 +2120,25 @@
       <c r="AG11">
         <v>0.7582451701164246</v>
       </c>
-      <c r="AH11" t="s">
-        <v>210</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300252</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>10.54</v>
@@ -1976,7 +2156,7 @@
         <v>95480.92999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -2017,8 +2197,23 @@
       <c r="W12">
         <v>1.07</v>
       </c>
+      <c r="X12">
+        <v>0.85</v>
+      </c>
+      <c r="Y12">
+        <v>14.73</v>
+      </c>
+      <c r="Z12">
+        <v>5.59</v>
+      </c>
       <c r="AC12" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2026,22 +2221,25 @@
       <c r="AG12">
         <v>21.3292121887207</v>
       </c>
-      <c r="AH12" t="s">
-        <v>210</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300291</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>20.07</v>
@@ -2059,7 +2257,7 @@
         <v>94317.88</v>
       </c>
       <c r="J13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2100,8 +2298,23 @@
       <c r="W13">
         <v>1.97</v>
       </c>
+      <c r="X13">
+        <v>-3.28</v>
+      </c>
+      <c r="Y13">
+        <v>6.98</v>
+      </c>
+      <c r="Z13">
+        <v>-5.16</v>
+      </c>
       <c r="AC13" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2109,22 +2322,25 @@
       <c r="AG13">
         <v>21.49759101867676</v>
       </c>
-      <c r="AH13" t="s">
-        <v>211</v>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300300</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.97</v>
@@ -2142,7 +2358,7 @@
         <v>39966.92</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -2183,8 +2399,23 @@
       <c r="W14">
         <v>-1.1</v>
       </c>
+      <c r="X14">
+        <v>3.39</v>
+      </c>
+      <c r="Y14">
+        <v>6.52</v>
+      </c>
+      <c r="Z14">
+        <v>9.4</v>
+      </c>
       <c r="AC14" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2192,22 +2423,25 @@
       <c r="AG14">
         <v>23.40650749206543</v>
       </c>
-      <c r="AH14" t="s">
-        <v>210</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300304</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.15</v>
@@ -2225,7 +2459,7 @@
         <v>35697.84</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -2266,8 +2500,23 @@
       <c r="W15">
         <v>-0.58</v>
       </c>
+      <c r="X15">
+        <v>1.5</v>
+      </c>
+      <c r="Y15">
+        <v>13.16</v>
+      </c>
+      <c r="Z15">
+        <v>2.49</v>
+      </c>
       <c r="AC15" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2275,22 +2524,25 @@
       <c r="AG15">
         <v>0.1685301810503006</v>
       </c>
-      <c r="AH15" t="s">
-        <v>210</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300322</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>6.68</v>
@@ -2308,7 +2560,7 @@
         <v>230634.88</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K16">
         <v>16</v>
@@ -2349,8 +2601,23 @@
       <c r="W16">
         <v>0.86</v>
       </c>
+      <c r="X16">
+        <v>-9.09</v>
+      </c>
+      <c r="Y16">
+        <v>27.61</v>
+      </c>
+      <c r="Z16">
+        <v>-4.96</v>
+      </c>
       <c r="AC16" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2358,22 +2625,25 @@
       <c r="AG16">
         <v>7.263534069061279</v>
       </c>
-      <c r="AH16" t="s">
-        <v>210</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300368</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>7.07</v>
@@ -2391,7 +2661,7 @@
         <v>186713.34</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -2432,8 +2702,23 @@
       <c r="W17">
         <v>-1.68</v>
       </c>
+      <c r="X17">
+        <v>-2.86</v>
+      </c>
+      <c r="Y17">
+        <v>17.63</v>
+      </c>
+      <c r="Z17">
+        <v>-1.4</v>
+      </c>
       <c r="AC17" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2441,22 +2726,25 @@
       <c r="AG17">
         <v>8.049516677856445</v>
       </c>
-      <c r="AH17" t="s">
-        <v>210</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300398</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>2.57</v>
@@ -2474,7 +2762,7 @@
         <v>126347.37</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2515,8 +2803,23 @@
       <c r="W18">
         <v>0.25</v>
       </c>
+      <c r="X18">
+        <v>-4.58</v>
+      </c>
+      <c r="Y18">
+        <v>24.53</v>
+      </c>
+      <c r="Z18">
+        <v>0.95</v>
+      </c>
       <c r="AC18" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2524,22 +2827,25 @@
       <c r="AG18">
         <v>4.317554473876953</v>
       </c>
-      <c r="AH18" t="s">
-        <v>210</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300400</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0.67</v>
@@ -2557,7 +2863,7 @@
         <v>91446.71000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -2598,8 +2904,23 @@
       <c r="W19">
         <v>-0.71</v>
       </c>
+      <c r="X19">
+        <v>2.72</v>
+      </c>
+      <c r="Y19">
+        <v>27.8</v>
+      </c>
+      <c r="Z19">
+        <v>2.62</v>
+      </c>
       <c r="AC19" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2607,22 +2928,25 @@
       <c r="AG19">
         <v>1.66046142578125</v>
       </c>
-      <c r="AH19" t="s">
-        <v>210</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300409</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>10.29</v>
@@ -2640,7 +2964,7 @@
         <v>134275.93</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2681,8 +3005,23 @@
       <c r="W20">
         <v>1.14</v>
       </c>
+      <c r="X20">
+        <v>2.92</v>
+      </c>
+      <c r="Y20">
+        <v>21.87</v>
+      </c>
+      <c r="Z20">
+        <v>5.14</v>
+      </c>
       <c r="AC20" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2690,22 +3029,25 @@
       <c r="AG20">
         <v>5.900294780731201</v>
       </c>
-      <c r="AH20" t="s">
-        <v>210</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300430</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-0.6899999999999999</v>
@@ -2723,7 +3065,7 @@
         <v>61141.27</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2764,8 +3106,23 @@
       <c r="W21">
         <v>-0.68</v>
       </c>
+      <c r="X21">
+        <v>-2.24</v>
+      </c>
+      <c r="Y21">
+        <v>24.43</v>
+      </c>
+      <c r="Z21">
+        <v>0.53</v>
+      </c>
       <c r="AC21" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2773,22 +3130,25 @@
       <c r="AG21">
         <v>0.5457145571708679</v>
       </c>
-      <c r="AH21" t="s">
-        <v>210</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300436</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-1.05</v>
@@ -2806,7 +3166,7 @@
         <v>161503.04</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K22">
         <v>33</v>
@@ -2847,8 +3207,23 @@
       <c r="W22">
         <v>-0.39</v>
       </c>
+      <c r="X22">
+        <v>-6.58</v>
+      </c>
+      <c r="Y22">
+        <v>188.93</v>
+      </c>
+      <c r="Z22">
+        <v>14.17</v>
+      </c>
       <c r="AC22" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2856,22 +3231,25 @@
       <c r="AG22">
         <v>-0.3770154416561127</v>
       </c>
-      <c r="AH22" t="s">
-        <v>210</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300486</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>2.85</v>
@@ -2889,7 +3267,7 @@
         <v>80624.96000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2930,8 +3308,23 @@
       <c r="W23">
         <v>0.22</v>
       </c>
+      <c r="X23">
+        <v>2.63</v>
+      </c>
+      <c r="Y23">
+        <v>24.35</v>
+      </c>
+      <c r="Z23">
+        <v>22.79</v>
+      </c>
       <c r="AC23" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2939,22 +3332,25 @@
       <c r="AG23">
         <v>1.759467005729675</v>
       </c>
-      <c r="AH23" t="s">
-        <v>210</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300499</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>20.02</v>
@@ -2972,7 +3368,7 @@
         <v>205555.65</v>
       </c>
       <c r="J24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -3013,8 +3409,23 @@
       <c r="W24">
         <v>0.77</v>
       </c>
+      <c r="X24">
+        <v>6.66</v>
+      </c>
+      <c r="Y24">
+        <v>36.04</v>
+      </c>
+      <c r="Z24">
+        <v>16.48</v>
+      </c>
       <c r="AC24" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -3022,22 +3433,25 @@
       <c r="AG24">
         <v>-7.420811653137207</v>
       </c>
-      <c r="AH24" t="s">
-        <v>211</v>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300539</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>9.26</v>
@@ -3055,7 +3469,7 @@
         <v>104231.53</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25">
         <v>8</v>
@@ -3096,8 +3510,23 @@
       <c r="W25">
         <v>-0.39</v>
       </c>
+      <c r="X25">
+        <v>7.58</v>
+      </c>
+      <c r="Y25">
+        <v>37</v>
+      </c>
+      <c r="Z25">
+        <v>11.18</v>
+      </c>
       <c r="AC25" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3105,22 +3534,25 @@
       <c r="AG25">
         <v>3.974108695983887</v>
       </c>
-      <c r="AH25" t="s">
-        <v>210</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300547</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>12.89</v>
@@ -3138,7 +3570,7 @@
         <v>238064.33</v>
       </c>
       <c r="J26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -3179,8 +3611,23 @@
       <c r="W26">
         <v>-1.77</v>
       </c>
+      <c r="X26">
+        <v>2.14</v>
+      </c>
+      <c r="Y26">
+        <v>58.58</v>
+      </c>
+      <c r="Z26">
+        <v>7.03</v>
+      </c>
       <c r="AC26" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3188,22 +3635,25 @@
       <c r="AG26">
         <v>10.28697681427002</v>
       </c>
-      <c r="AH26" t="s">
-        <v>210</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300548</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>7.5</v>
@@ -3221,7 +3671,7 @@
         <v>177065.18</v>
       </c>
       <c r="J27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K27">
         <v>25</v>
@@ -3262,8 +3712,23 @@
       <c r="W27">
         <v>0.42</v>
       </c>
+      <c r="X27">
+        <v>1.11</v>
+      </c>
+      <c r="Y27">
+        <v>105.26</v>
+      </c>
+      <c r="Z27">
+        <v>6.48</v>
+      </c>
       <c r="AC27" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3271,22 +3736,25 @@
       <c r="AG27">
         <v>1.381184577941895</v>
       </c>
-      <c r="AH27" t="s">
-        <v>210</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300579</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>1.44</v>
@@ -3304,7 +3772,7 @@
         <v>55138.05</v>
       </c>
       <c r="J28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3345,8 +3813,23 @@
       <c r="W28">
         <v>-0.05</v>
       </c>
+      <c r="X28">
+        <v>-1.94</v>
+      </c>
+      <c r="Y28">
+        <v>41.41</v>
+      </c>
+      <c r="Z28">
+        <v>1.54</v>
+      </c>
       <c r="AC28" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3354,22 +3837,25 @@
       <c r="AG28">
         <v>3.35196328163147</v>
       </c>
-      <c r="AH28" t="s">
-        <v>210</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300584</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-2.16</v>
@@ -3387,7 +3873,7 @@
         <v>77194.8</v>
       </c>
       <c r="J29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -3428,8 +3914,23 @@
       <c r="W29">
         <v>0.03</v>
       </c>
+      <c r="X29">
+        <v>-3.25</v>
+      </c>
+      <c r="Y29">
+        <v>62</v>
+      </c>
+      <c r="Z29">
+        <v>6.24</v>
+      </c>
       <c r="AC29" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3437,22 +3938,25 @@
       <c r="AG29">
         <v>-0.717055082321167</v>
       </c>
-      <c r="AH29" t="s">
-        <v>210</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300593</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>4.07</v>
@@ -3470,7 +3974,7 @@
         <v>67591.03</v>
       </c>
       <c r="J30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K30">
         <v>7</v>
@@ -3511,8 +4015,23 @@
       <c r="W30">
         <v>0.28</v>
       </c>
+      <c r="X30">
+        <v>1.5</v>
+      </c>
+      <c r="Y30">
+        <v>20.53</v>
+      </c>
+      <c r="Z30">
+        <v>-0.77</v>
+      </c>
       <c r="AC30" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3520,22 +4039,25 @@
       <c r="AG30">
         <v>3.935081243515015</v>
       </c>
-      <c r="AH30" t="s">
-        <v>210</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300600</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>4.11</v>
@@ -3553,7 +4075,7 @@
         <v>68872.92999999999</v>
       </c>
       <c r="J31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K31">
         <v>14</v>
@@ -3594,8 +4116,23 @@
       <c r="W31">
         <v>0.74</v>
       </c>
+      <c r="X31">
+        <v>-4.26</v>
+      </c>
+      <c r="Y31">
+        <v>23.06</v>
+      </c>
+      <c r="Z31">
+        <v>2.4</v>
+      </c>
       <c r="AC31" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3603,22 +4140,25 @@
       <c r="AG31">
         <v>2.490923404693604</v>
       </c>
-      <c r="AH31" t="s">
-        <v>210</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300609</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>16.04</v>
@@ -3636,7 +4176,7 @@
         <v>83668.16</v>
       </c>
       <c r="J32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K32">
         <v>14</v>
@@ -3677,8 +4217,23 @@
       <c r="W32">
         <v>-0.91</v>
       </c>
+      <c r="X32">
+        <v>-1.52</v>
+      </c>
+      <c r="Y32">
+        <v>60.6</v>
+      </c>
+      <c r="Z32">
+        <v>-1.09</v>
+      </c>
       <c r="AC32" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3686,22 +4241,25 @@
       <c r="AG32">
         <v>-4.546475887298584</v>
       </c>
-      <c r="AH32" t="s">
-        <v>210</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300620</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>14.06</v>
@@ -3719,7 +4277,7 @@
         <v>324478.62</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -3760,8 +4318,23 @@
       <c r="W33">
         <v>0.13</v>
       </c>
+      <c r="X33">
+        <v>2.68</v>
+      </c>
+      <c r="Y33">
+        <v>108</v>
+      </c>
+      <c r="Z33">
+        <v>15.47</v>
+      </c>
       <c r="AC33" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3769,22 +4342,25 @@
       <c r="AG33">
         <v>5.485025882720947</v>
       </c>
-      <c r="AH33" t="s">
-        <v>211</v>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300637</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>1.84</v>
@@ -3802,7 +4378,7 @@
         <v>63111.4</v>
       </c>
       <c r="J34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -3843,8 +4419,23 @@
       <c r="W34">
         <v>-0.4</v>
       </c>
+      <c r="X34">
+        <v>-5.98</v>
+      </c>
+      <c r="Y34">
+        <v>16.3</v>
+      </c>
+      <c r="Z34">
+        <v>1.68</v>
+      </c>
       <c r="AC34" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3852,22 +4443,25 @@
       <c r="AG34">
         <v>7.094794750213623</v>
       </c>
-      <c r="AH34" t="s">
-        <v>210</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300648</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>1.64</v>
@@ -3885,7 +4479,7 @@
         <v>26784.72</v>
       </c>
       <c r="J35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K35">
         <v>13</v>
@@ -3926,8 +4520,23 @@
       <c r="W35">
         <v>-0.03</v>
       </c>
+      <c r="X35">
+        <v>2.61</v>
+      </c>
+      <c r="Y35">
+        <v>62.8</v>
+      </c>
+      <c r="Z35">
+        <v>6.95</v>
+      </c>
       <c r="AC35" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3935,22 +4544,25 @@
       <c r="AG35">
         <v>4.159564018249512</v>
       </c>
-      <c r="AH35" t="s">
-        <v>210</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300671</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>1.19</v>
@@ -3968,7 +4580,7 @@
         <v>46621.03</v>
       </c>
       <c r="J36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -4009,8 +4621,23 @@
       <c r="W36">
         <v>-0.13</v>
       </c>
+      <c r="X36">
+        <v>3.64</v>
+      </c>
+      <c r="Y36">
+        <v>43.38</v>
+      </c>
+      <c r="Z36">
+        <v>4.48</v>
+      </c>
       <c r="AC36" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4018,22 +4645,25 @@
       <c r="AG36">
         <v>-0.4991461336612701</v>
       </c>
-      <c r="AH36" t="s">
-        <v>210</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300683</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>5.26</v>
@@ -4051,7 +4681,7 @@
         <v>50113.81</v>
       </c>
       <c r="J37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K37">
         <v>21</v>
@@ -4092,8 +4722,23 @@
       <c r="W37">
         <v>0.41</v>
       </c>
+      <c r="X37">
+        <v>-4.58</v>
+      </c>
+      <c r="Y37">
+        <v>60.95</v>
+      </c>
+      <c r="Z37">
+        <v>4.62</v>
+      </c>
       <c r="AC37" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4101,22 +4746,25 @@
       <c r="AG37">
         <v>-10.17097282409668</v>
       </c>
-      <c r="AH37" t="s">
-        <v>210</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300684</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>9.91</v>
@@ -4134,7 +4782,7 @@
         <v>111879.6</v>
       </c>
       <c r="J38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K38">
         <v>14</v>
@@ -4175,8 +4823,23 @@
       <c r="W38">
         <v>0.6899999999999999</v>
       </c>
+      <c r="X38">
+        <v>-2.53</v>
+      </c>
+      <c r="Y38">
+        <v>38.13</v>
+      </c>
+      <c r="Z38">
+        <v>1.71</v>
+      </c>
       <c r="AC38" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4184,22 +4847,25 @@
       <c r="AG38">
         <v>0.1130859553813934</v>
       </c>
-      <c r="AH38" t="s">
-        <v>210</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300690</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>3.9</v>
@@ -4217,7 +4883,7 @@
         <v>122734.94</v>
       </c>
       <c r="J39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K39">
         <v>6</v>
@@ -4258,8 +4924,23 @@
       <c r="W39">
         <v>0.85</v>
       </c>
+      <c r="X39">
+        <v>-4.64</v>
+      </c>
+      <c r="Y39">
+        <v>40</v>
+      </c>
+      <c r="Z39">
+        <v>-0.47</v>
+      </c>
       <c r="AC39" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4267,22 +4948,25 @@
       <c r="AG39">
         <v>2.625272989273071</v>
       </c>
-      <c r="AH39" t="s">
-        <v>210</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300703</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-0.96</v>
@@ -4300,7 +4984,7 @@
         <v>34505.16</v>
       </c>
       <c r="J40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K40">
         <v>7</v>
@@ -4341,8 +5025,23 @@
       <c r="W40">
         <v>0.06</v>
       </c>
+      <c r="X40">
+        <v>4.2</v>
+      </c>
+      <c r="Y40">
+        <v>37.08</v>
+      </c>
+      <c r="Z40">
+        <v>9.48</v>
+      </c>
       <c r="AC40" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4350,22 +5049,25 @@
       <c r="AG40">
         <v>6.105132579803467</v>
       </c>
-      <c r="AH40" t="s">
-        <v>210</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300706</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>2.84</v>
@@ -4383,7 +5085,7 @@
         <v>98091.55</v>
       </c>
       <c r="J41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K41">
         <v>17</v>
@@ -4424,8 +5126,23 @@
       <c r="W41">
         <v>-0.51</v>
       </c>
+      <c r="X41">
+        <v>-6.03</v>
+      </c>
+      <c r="Y41">
+        <v>50.95</v>
+      </c>
+      <c r="Z41">
+        <v>1.96</v>
+      </c>
       <c r="AC41" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4433,22 +5150,25 @@
       <c r="AG41">
         <v>12.43707370758057</v>
       </c>
-      <c r="AH41" t="s">
-        <v>210</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300727</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>16.55</v>
@@ -4466,7 +5186,7 @@
         <v>77885.13</v>
       </c>
       <c r="J42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4507,8 +5227,23 @@
       <c r="W42">
         <v>-0.28</v>
       </c>
+      <c r="X42">
+        <v>-5.41</v>
+      </c>
+      <c r="Y42">
+        <v>43.58</v>
+      </c>
+      <c r="Z42">
+        <v>2.81</v>
+      </c>
       <c r="AC42" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4516,22 +5251,25 @@
       <c r="AG42">
         <v>-9.319463729858398</v>
       </c>
-      <c r="AH42" t="s">
-        <v>210</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300730</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>19.99</v>
@@ -4549,7 +5287,7 @@
         <v>147481.79</v>
       </c>
       <c r="J43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4590,8 +5328,23 @@
       <c r="W43">
         <v>-1.39</v>
       </c>
+      <c r="X43">
+        <v>-5.32</v>
+      </c>
+      <c r="Y43">
+        <v>22.27</v>
+      </c>
+      <c r="Z43">
+        <v>4.8</v>
+      </c>
       <c r="AC43" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4599,22 +5352,25 @@
       <c r="AG43">
         <v>-1.364526987075806</v>
       </c>
-      <c r="AH43" t="s">
-        <v>210</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300731</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>13.77</v>
@@ -4632,7 +5388,7 @@
         <v>126985.7</v>
       </c>
       <c r="J44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K44">
         <v>12</v>
@@ -4673,8 +5429,23 @@
       <c r="W44">
         <v>-0.01</v>
       </c>
+      <c r="X44">
+        <v>-5.83</v>
+      </c>
+      <c r="Y44">
+        <v>58</v>
+      </c>
+      <c r="Z44">
+        <v>-1.41</v>
+      </c>
       <c r="AC44" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4682,22 +5453,25 @@
       <c r="AG44">
         <v>9.172977447509766</v>
       </c>
-      <c r="AH44" t="s">
-        <v>210</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300767</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>17.34</v>
@@ -4715,7 +5489,7 @@
         <v>64328.74</v>
       </c>
       <c r="J45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4756,8 +5530,23 @@
       <c r="W45">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X45">
+        <v>7.25</v>
+      </c>
+      <c r="Y45">
+        <v>21.65</v>
+      </c>
+      <c r="Z45">
+        <v>11.48</v>
+      </c>
       <c r="AC45" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4765,22 +5554,25 @@
       <c r="AG45">
         <v>3.202218294143677</v>
       </c>
-      <c r="AH45" t="s">
-        <v>211</v>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300803</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -4798,7 +5590,7 @@
         <v>1124779.72</v>
       </c>
       <c r="J46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -4839,8 +5631,23 @@
       <c r="W46">
         <v>-0.4</v>
       </c>
+      <c r="X46">
+        <v>0.47</v>
+      </c>
+      <c r="Y46">
+        <v>129.09</v>
+      </c>
+      <c r="Z46">
+        <v>-2.09</v>
+      </c>
       <c r="AC46" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4848,22 +5655,25 @@
       <c r="AG46">
         <v>16.62833595275879</v>
       </c>
-      <c r="AH46" t="s">
-        <v>210</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300806</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>10.48</v>
@@ -4881,7 +5691,7 @@
         <v>77972.8</v>
       </c>
       <c r="J47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4922,8 +5732,23 @@
       <c r="W47">
         <v>0.96</v>
       </c>
+      <c r="X47">
+        <v>-3</v>
+      </c>
+      <c r="Y47">
+        <v>24.18</v>
+      </c>
+      <c r="Z47">
+        <v>0.17</v>
+      </c>
       <c r="AC47" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4931,22 +5756,25 @@
       <c r="AG47">
         <v>4.867200374603271</v>
       </c>
-      <c r="AH47" t="s">
-        <v>210</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300811</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>18.08</v>
@@ -4964,7 +5792,7 @@
         <v>171217.97</v>
       </c>
       <c r="J48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -5005,8 +5833,23 @@
       <c r="W48">
         <v>-0.04</v>
       </c>
+      <c r="X48">
+        <v>-2.51</v>
+      </c>
+      <c r="Y48">
+        <v>74.88</v>
+      </c>
+      <c r="Z48">
+        <v>-2.44</v>
+      </c>
       <c r="AC48" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>1</v>
@@ -5014,22 +5857,25 @@
       <c r="AG48">
         <v>13.00305843353271</v>
       </c>
-      <c r="AH48" t="s">
-        <v>210</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300814</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>12.62</v>
@@ -5047,7 +5893,7 @@
         <v>135175.49</v>
       </c>
       <c r="J49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -5088,8 +5934,23 @@
       <c r="W49">
         <v>-0.6</v>
       </c>
+      <c r="X49">
+        <v>-3.06</v>
+      </c>
+      <c r="Y49">
+        <v>50.86</v>
+      </c>
+      <c r="Z49">
+        <v>-1.59</v>
+      </c>
       <c r="AC49" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5097,22 +5958,25 @@
       <c r="AG49">
         <v>0.8542430996894836</v>
       </c>
-      <c r="AH49" t="s">
-        <v>210</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300815</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>1.05</v>
@@ -5130,7 +5994,7 @@
         <v>110200.88</v>
       </c>
       <c r="J50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -5171,8 +6035,23 @@
       <c r="W50">
         <v>-0.2</v>
       </c>
+      <c r="X50">
+        <v>-6.17</v>
+      </c>
+      <c r="Y50">
+        <v>30.55</v>
+      </c>
+      <c r="Z50">
+        <v>-0.8100000000000001</v>
+      </c>
       <c r="AC50" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5180,22 +6059,25 @@
       <c r="AG50">
         <v>32.02336120605469</v>
       </c>
-      <c r="AH50" t="s">
-        <v>210</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300816</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>0.96</v>
@@ -5213,7 +6095,7 @@
         <v>27508.41</v>
       </c>
       <c r="J51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5254,8 +6136,23 @@
       <c r="W51">
         <v>0.01</v>
       </c>
+      <c r="X51">
+        <v>-2.98</v>
+      </c>
+      <c r="Y51">
+        <v>42.26</v>
+      </c>
+      <c r="Z51">
+        <v>-1.74</v>
+      </c>
       <c r="AC51" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5263,22 +6160,25 @@
       <c r="AG51">
         <v>4.07943058013916</v>
       </c>
-      <c r="AH51" t="s">
-        <v>210</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300835</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>8.16</v>
@@ -5296,7 +6196,7 @@
         <v>64871.05</v>
       </c>
       <c r="J52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K52">
         <v>20</v>
@@ -5337,8 +6237,23 @@
       <c r="W52">
         <v>0.45</v>
       </c>
+      <c r="X52">
+        <v>-2.4</v>
+      </c>
+      <c r="Y52">
+        <v>67.28</v>
+      </c>
+      <c r="Z52">
+        <v>3.57</v>
+      </c>
       <c r="AC52" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5346,22 +6261,25 @@
       <c r="AG52">
         <v>6.179902076721191</v>
       </c>
-      <c r="AH52" t="s">
-        <v>210</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300843</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>7.12</v>
@@ -5379,7 +6297,7 @@
         <v>88176.62</v>
       </c>
       <c r="J53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5420,8 +6338,23 @@
       <c r="W53">
         <v>1.38</v>
       </c>
+      <c r="X53">
+        <v>-5.19</v>
+      </c>
+      <c r="Y53">
+        <v>50.45</v>
+      </c>
+      <c r="Z53">
+        <v>4.84</v>
+      </c>
       <c r="AC53" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>1</v>
@@ -5429,22 +6362,25 @@
       <c r="AG53">
         <v>5.04706335067749</v>
       </c>
-      <c r="AH53" t="s">
-        <v>211</v>
+      <c r="AH53">
+        <v>1</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300870</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-1.33</v>
@@ -5462,7 +6398,7 @@
         <v>176733.35</v>
       </c>
       <c r="J54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -5503,8 +6439,23 @@
       <c r="W54">
         <v>-0.17</v>
       </c>
+      <c r="X54">
+        <v>3.52</v>
+      </c>
+      <c r="Y54">
+        <v>259.99</v>
+      </c>
+      <c r="Z54">
+        <v>6.03</v>
+      </c>
       <c r="AC54" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5512,22 +6463,25 @@
       <c r="AG54">
         <v>0.9076840877532959</v>
       </c>
-      <c r="AH54" t="s">
-        <v>210</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300902</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>2.91</v>
@@ -5545,7 +6499,7 @@
         <v>28648.71</v>
       </c>
       <c r="J55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -5586,8 +6540,23 @@
       <c r="W55">
         <v>0.71</v>
       </c>
+      <c r="X55">
+        <v>5.07</v>
+      </c>
+      <c r="Y55">
+        <v>31.88</v>
+      </c>
+      <c r="Z55">
+        <v>6.23</v>
+      </c>
       <c r="AC55" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5595,22 +6564,25 @@
       <c r="AG55">
         <v>16.12693023681641</v>
       </c>
-      <c r="AH55" t="s">
-        <v>210</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300907</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-2.13</v>
@@ -5628,7 +6600,7 @@
         <v>23607.9</v>
       </c>
       <c r="J56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5669,8 +6641,23 @@
       <c r="W56">
         <v>0.33</v>
       </c>
+      <c r="X56">
+        <v>12.37</v>
+      </c>
+      <c r="Y56">
+        <v>44.79</v>
+      </c>
+      <c r="Z56">
+        <v>17.34</v>
+      </c>
       <c r="AC56" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5678,22 +6665,25 @@
       <c r="AG56">
         <v>1.270141124725342</v>
       </c>
-      <c r="AH56" t="s">
-        <v>210</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301005</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-1.79</v>
@@ -5711,7 +6701,7 @@
         <v>64627.74</v>
       </c>
       <c r="J57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K57">
         <v>10</v>
@@ -5752,8 +6742,23 @@
       <c r="W57">
         <v>-0.47</v>
       </c>
+      <c r="X57">
+        <v>-4.71</v>
+      </c>
+      <c r="Y57">
+        <v>52.58</v>
+      </c>
+      <c r="Z57">
+        <v>-1.2</v>
+      </c>
       <c r="AC57" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5761,22 +6766,25 @@
       <c r="AG57">
         <v>1.886031150817871</v>
       </c>
-      <c r="AH57" t="s">
-        <v>210</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301007</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>5.27</v>
@@ -5794,7 +6802,7 @@
         <v>47065.02</v>
       </c>
       <c r="J58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K58">
         <v>4</v>
@@ -5835,8 +6843,23 @@
       <c r="W58">
         <v>-0.11</v>
       </c>
+      <c r="X58">
+        <v>5.95</v>
+      </c>
+      <c r="Y58">
+        <v>46.33</v>
+      </c>
+      <c r="Z58">
+        <v>4.94</v>
+      </c>
       <c r="AC58" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>1</v>
@@ -5844,22 +6867,25 @@
       <c r="AG58">
         <v>6.532106399536133</v>
       </c>
-      <c r="AH58" t="s">
-        <v>210</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301018</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>13.8</v>
@@ -5877,7 +6903,7 @@
         <v>121881.15</v>
       </c>
       <c r="J59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5918,8 +6944,23 @@
       <c r="W59">
         <v>0.28</v>
       </c>
+      <c r="X59">
+        <v>-7.21</v>
+      </c>
+      <c r="Y59">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="Z59">
+        <v>-1.86</v>
+      </c>
       <c r="AC59" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5927,22 +6968,25 @@
       <c r="AG59">
         <v>2.975069761276245</v>
       </c>
-      <c r="AH59" t="s">
-        <v>210</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301021</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>1.51</v>
@@ -5960,7 +7004,7 @@
         <v>35750.99</v>
       </c>
       <c r="J60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K60">
         <v>5</v>
@@ -6001,8 +7045,23 @@
       <c r="W60">
         <v>0.17</v>
       </c>
+      <c r="X60">
+        <v>-2.98</v>
+      </c>
+      <c r="Y60">
+        <v>37.9</v>
+      </c>
+      <c r="Z60">
+        <v>0.91</v>
+      </c>
       <c r="AC60" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6010,22 +7069,25 @@
       <c r="AG60">
         <v>4.779958724975586</v>
       </c>
-      <c r="AH60" t="s">
-        <v>210</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301022</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-2.29</v>
@@ -6043,7 +7105,7 @@
         <v>27553.21</v>
       </c>
       <c r="J61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K61">
         <v>9</v>
@@ -6084,8 +7146,23 @@
       <c r="W61">
         <v>-1.19</v>
       </c>
+      <c r="X61">
+        <v>0.35</v>
+      </c>
+      <c r="Y61">
+        <v>46.73</v>
+      </c>
+      <c r="Z61">
+        <v>3.25</v>
+      </c>
       <c r="AC61" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6093,22 +7170,25 @@
       <c r="AG61">
         <v>-4.39803409576416</v>
       </c>
-      <c r="AH61" t="s">
-        <v>210</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301038</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>1.71</v>
@@ -6126,7 +7206,7 @@
         <v>56255.5</v>
       </c>
       <c r="J62" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K62">
         <v>15</v>
@@ -6167,8 +7247,23 @@
       <c r="W62">
         <v>-0.13</v>
       </c>
+      <c r="X62">
+        <v>-2.85</v>
+      </c>
+      <c r="Y62">
+        <v>37.45</v>
+      </c>
+      <c r="Z62">
+        <v>1.57</v>
+      </c>
       <c r="AC62" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6176,22 +7271,25 @@
       <c r="AG62">
         <v>2.61970591545105</v>
       </c>
-      <c r="AH62" t="s">
-        <v>210</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301069</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>3.32</v>
@@ -6209,7 +7307,7 @@
         <v>85669.25</v>
       </c>
       <c r="J63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K63">
         <v>9</v>
@@ -6250,8 +7348,23 @@
       <c r="W63">
         <v>-0.23</v>
       </c>
+      <c r="X63">
+        <v>-5.43</v>
+      </c>
+      <c r="Y63">
+        <v>25.06</v>
+      </c>
+      <c r="Z63">
+        <v>0.72</v>
+      </c>
       <c r="AC63" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6259,22 +7372,25 @@
       <c r="AG63">
         <v>-8.982192039489746</v>
       </c>
-      <c r="AH63" t="s">
-        <v>210</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301076</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>2.66</v>
@@ -6292,7 +7408,7 @@
         <v>151711.72</v>
       </c>
       <c r="J64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K64">
         <v>9</v>
@@ -6333,8 +7449,23 @@
       <c r="W64">
         <v>-0.65</v>
       </c>
+      <c r="X64">
+        <v>-7.39</v>
+      </c>
+      <c r="Y64">
+        <v>61.58</v>
+      </c>
+      <c r="Z64">
+        <v>5.16</v>
+      </c>
       <c r="AC64" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6342,22 +7473,25 @@
       <c r="AG64">
         <v>-1.114360213279724</v>
       </c>
-      <c r="AH64" t="s">
-        <v>210</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301095</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>15.91</v>
@@ -6375,7 +7509,7 @@
         <v>120973.06</v>
       </c>
       <c r="J65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K65">
         <v>14</v>
@@ -6416,8 +7550,23 @@
       <c r="W65">
         <v>0.34</v>
       </c>
+      <c r="X65">
+        <v>-6.18</v>
+      </c>
+      <c r="Y65">
+        <v>93.88</v>
+      </c>
+      <c r="Z65">
+        <v>-2.81</v>
+      </c>
       <c r="AC65" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6425,22 +7574,25 @@
       <c r="AG65">
         <v>6.641242027282715</v>
       </c>
-      <c r="AH65" t="s">
-        <v>210</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301120</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>2.65</v>
@@ -6458,7 +7610,7 @@
         <v>39209.43</v>
       </c>
       <c r="J66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K66">
         <v>10</v>
@@ -6499,8 +7651,23 @@
       <c r="W66">
         <v>-0.53</v>
       </c>
+      <c r="X66">
+        <v>7.09</v>
+      </c>
+      <c r="Y66">
+        <v>18.33</v>
+      </c>
+      <c r="Z66">
+        <v>18.11</v>
+      </c>
       <c r="AC66" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6508,22 +7675,25 @@
       <c r="AG66">
         <v>3.172465324401855</v>
       </c>
-      <c r="AH66" t="s">
-        <v>210</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301123</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>19.99</v>
@@ -6541,7 +7711,7 @@
         <v>105102.98</v>
       </c>
       <c r="J67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K67">
         <v>10</v>
@@ -6582,8 +7752,23 @@
       <c r="W67">
         <v>0.15</v>
       </c>
+      <c r="X67">
+        <v>3.45</v>
+      </c>
+      <c r="Y67">
+        <v>49.09</v>
+      </c>
+      <c r="Z67">
+        <v>3.81</v>
+      </c>
       <c r="AC67" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>1</v>
@@ -6591,22 +7776,25 @@
       <c r="AG67">
         <v>-2.562487125396729</v>
       </c>
-      <c r="AH67" t="s">
-        <v>211</v>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301128</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>20</v>
@@ -6624,7 +7812,7 @@
         <v>100183.81</v>
       </c>
       <c r="J68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K68">
         <v>4</v>
@@ -6665,8 +7853,23 @@
       <c r="W68">
         <v>0.44</v>
       </c>
+      <c r="X68">
+        <v>9.73</v>
+      </c>
+      <c r="Y68">
+        <v>105</v>
+      </c>
+      <c r="Z68">
+        <v>17.59</v>
+      </c>
       <c r="AC68" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>1</v>
@@ -6674,22 +7877,25 @@
       <c r="AG68">
         <v>5.264331817626953</v>
       </c>
-      <c r="AH68" t="s">
-        <v>211</v>
+      <c r="AH68">
+        <v>1</v>
+      </c>
+      <c r="AI68">
+        <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301132</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>1.36</v>
@@ -6707,7 +7913,7 @@
         <v>43287.38</v>
       </c>
       <c r="J69" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K69">
         <v>6</v>
@@ -6748,8 +7954,23 @@
       <c r="W69">
         <v>0.08</v>
       </c>
+      <c r="X69">
+        <v>-0.86</v>
+      </c>
+      <c r="Y69">
+        <v>43.41</v>
+      </c>
+      <c r="Z69">
+        <v>0.53</v>
+      </c>
       <c r="AC69" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6757,22 +7978,25 @@
       <c r="AG69">
         <v>2.939029932022095</v>
       </c>
-      <c r="AH69" t="s">
-        <v>210</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301150</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-0.57</v>
@@ -6790,7 +8014,7 @@
         <v>32412.57</v>
       </c>
       <c r="J70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K70">
         <v>4</v>
@@ -6831,8 +8055,23 @@
       <c r="W70">
         <v>-0.64</v>
       </c>
+      <c r="X70">
+        <v>-2.51</v>
+      </c>
+      <c r="Y70">
+        <v>30.96</v>
+      </c>
+      <c r="Z70">
+        <v>-2.06</v>
+      </c>
       <c r="AC70" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6840,22 +8079,25 @@
       <c r="AG70">
         <v>124.667236328125</v>
       </c>
-      <c r="AH70" t="s">
-        <v>210</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301161</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>13.19</v>
@@ -6873,7 +8115,7 @@
         <v>53380.4</v>
       </c>
       <c r="J71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K71">
         <v>11</v>
@@ -6914,8 +8156,23 @@
       <c r="W71">
         <v>-1.77</v>
       </c>
+      <c r="X71">
+        <v>1.12</v>
+      </c>
+      <c r="Y71">
+        <v>47.45</v>
+      </c>
+      <c r="Z71">
+        <v>8.380000000000001</v>
+      </c>
       <c r="AC71" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6923,22 +8180,25 @@
       <c r="AG71">
         <v>42.95672988891602</v>
       </c>
-      <c r="AH71" t="s">
-        <v>210</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301165</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>20</v>
@@ -6956,7 +8216,7 @@
         <v>148201.68</v>
       </c>
       <c r="J72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K72">
         <v>5</v>
@@ -6997,8 +8257,23 @@
       <c r="W72">
         <v>0.71</v>
       </c>
+      <c r="X72">
+        <v>2.02</v>
+      </c>
+      <c r="Y72">
+        <v>86.66</v>
+      </c>
+      <c r="Z72">
+        <v>5.88</v>
+      </c>
       <c r="AC72" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>1</v>
@@ -7006,22 +8281,25 @@
       <c r="AG72">
         <v>15.47995185852051</v>
       </c>
-      <c r="AH72" t="s">
-        <v>211</v>
+      <c r="AH72">
+        <v>1</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301181</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>2.9</v>
@@ -7039,7 +8317,7 @@
         <v>33050.02</v>
       </c>
       <c r="J73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K73">
         <v>4</v>
@@ -7080,8 +8358,23 @@
       <c r="W73">
         <v>-0.75</v>
       </c>
+      <c r="X73">
+        <v>-6.12</v>
+      </c>
+      <c r="Y73">
+        <v>34.3</v>
+      </c>
+      <c r="Z73">
+        <v>-1.29</v>
+      </c>
       <c r="AC73" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7089,22 +8382,25 @@
       <c r="AG73">
         <v>14.83572673797607</v>
       </c>
-      <c r="AH73" t="s">
-        <v>210</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301196</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-1.96</v>
@@ -7122,7 +8418,7 @@
         <v>46999.1</v>
       </c>
       <c r="J74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K74">
         <v>4</v>
@@ -7163,8 +8459,23 @@
       <c r="W74">
         <v>0.01</v>
       </c>
+      <c r="X74">
+        <v>-3.18</v>
+      </c>
+      <c r="Y74">
+        <v>105.76</v>
+      </c>
+      <c r="Z74">
+        <v>1.39</v>
+      </c>
       <c r="AC74" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7172,22 +8483,25 @@
       <c r="AG74">
         <v>-10.75394630432129</v>
       </c>
-      <c r="AH74" t="s">
-        <v>210</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301217</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>4.67</v>
@@ -7205,7 +8519,7 @@
         <v>210737.72</v>
       </c>
       <c r="J75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K75">
         <v>31</v>
@@ -7246,8 +8560,23 @@
       <c r="W75">
         <v>-0.19</v>
       </c>
+      <c r="X75">
+        <v>-3.32</v>
+      </c>
+      <c r="Y75">
+        <v>32.97</v>
+      </c>
+      <c r="Z75">
+        <v>-2.02</v>
+      </c>
       <c r="AC75" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7255,22 +8584,25 @@
       <c r="AG75">
         <v>9.521839141845703</v>
       </c>
-      <c r="AH75" t="s">
-        <v>210</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301226</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>20.01</v>
@@ -7288,7 +8620,7 @@
         <v>50423.15</v>
       </c>
       <c r="J76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -7329,8 +8661,23 @@
       <c r="W76">
         <v>1.58</v>
       </c>
+      <c r="X76">
+        <v>2.88</v>
+      </c>
+      <c r="Y76">
+        <v>43.18</v>
+      </c>
+      <c r="Z76">
+        <v>7.31</v>
+      </c>
       <c r="AC76" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD76">
+        <v>1</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>1</v>
@@ -7338,22 +8685,25 @@
       <c r="AG76">
         <v>18.37236022949219</v>
       </c>
-      <c r="AH76" t="s">
-        <v>211</v>
+      <c r="AH76">
+        <v>1</v>
+      </c>
+      <c r="AI76">
+        <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301235</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>14.55</v>
@@ -7371,7 +8721,7 @@
         <v>34468.66</v>
       </c>
       <c r="J77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7412,8 +8762,23 @@
       <c r="W77">
         <v>-0.1</v>
       </c>
+      <c r="X77">
+        <v>-0.57</v>
+      </c>
+      <c r="Y77">
+        <v>34.36</v>
+      </c>
+      <c r="Z77">
+        <v>2.2</v>
+      </c>
       <c r="AC77" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7421,22 +8786,25 @@
       <c r="AG77">
         <v>3.186879396438599</v>
       </c>
-      <c r="AH77" t="s">
-        <v>210</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301251</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>2.81</v>
@@ -7454,7 +8822,7 @@
         <v>68428.36</v>
       </c>
       <c r="J78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K78">
         <v>9</v>
@@ -7495,8 +8863,23 @@
       <c r="W78">
         <v>0.18</v>
       </c>
+      <c r="X78">
+        <v>-2.87</v>
+      </c>
+      <c r="Y78">
+        <v>63.1</v>
+      </c>
+      <c r="Z78">
+        <v>-1.87</v>
+      </c>
       <c r="AC78" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7504,22 +8887,25 @@
       <c r="AG78">
         <v>1.886710405349731</v>
       </c>
-      <c r="AH78" t="s">
-        <v>210</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301323</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>1.24</v>
@@ -7537,7 +8923,7 @@
         <v>34990.67</v>
       </c>
       <c r="J79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K79">
         <v>5</v>
@@ -7578,8 +8964,23 @@
       <c r="W79">
         <v>-0.03</v>
       </c>
+      <c r="X79">
+        <v>-2.28</v>
+      </c>
+      <c r="Y79">
+        <v>61.8</v>
+      </c>
+      <c r="Z79">
+        <v>-0.31</v>
+      </c>
       <c r="AC79" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7587,22 +8988,25 @@
       <c r="AG79">
         <v>2.881037473678589</v>
       </c>
-      <c r="AH79" t="s">
-        <v>210</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301326</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>8.529999999999999</v>
@@ -7620,7 +9024,7 @@
         <v>46074.37</v>
       </c>
       <c r="J80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K80">
         <v>7</v>
@@ -7661,8 +9065,23 @@
       <c r="W80">
         <v>0.01</v>
       </c>
+      <c r="X80">
+        <v>-4.07</v>
+      </c>
+      <c r="Y80">
+        <v>116.5</v>
+      </c>
+      <c r="Z80">
+        <v>5.42</v>
+      </c>
       <c r="AC80" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7670,22 +9089,25 @@
       <c r="AG80">
         <v>6.25694751739502</v>
       </c>
-      <c r="AH80" t="s">
-        <v>210</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301377</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-2.2</v>
@@ -7703,7 +9125,7 @@
         <v>31985.44</v>
       </c>
       <c r="J81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7744,8 +9166,23 @@
       <c r="W81">
         <v>0.06</v>
       </c>
+      <c r="X81">
+        <v>-4.69</v>
+      </c>
+      <c r="Y81">
+        <v>63.11</v>
+      </c>
+      <c r="Z81">
+        <v>2.89</v>
+      </c>
       <c r="AC81" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7753,22 +9190,25 @@
       <c r="AG81">
         <v>4.165886402130127</v>
       </c>
-      <c r="AH81" t="s">
-        <v>210</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301389</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>0.19</v>
@@ -7786,7 +9226,7 @@
         <v>67139.12</v>
       </c>
       <c r="J82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K82">
         <v>30</v>
@@ -7827,8 +9267,23 @@
       <c r="W82">
         <v>-0.29</v>
       </c>
+      <c r="X82">
+        <v>0.19</v>
+      </c>
+      <c r="Y82">
+        <v>53.6</v>
+      </c>
+      <c r="Z82">
+        <v>1.21</v>
+      </c>
       <c r="AC82" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7836,22 +9291,25 @@
       <c r="AG82">
         <v>2.220165252685547</v>
       </c>
-      <c r="AH82" t="s">
-        <v>210</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301397</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>5.05</v>
@@ -7869,7 +9327,7 @@
         <v>71028.81</v>
       </c>
       <c r="J83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K83">
         <v>8</v>
@@ -7910,8 +9368,23 @@
       <c r="W83">
         <v>0.24</v>
       </c>
+      <c r="X83">
+        <v>-5.62</v>
+      </c>
+      <c r="Y83">
+        <v>51.15</v>
+      </c>
+      <c r="Z83">
+        <v>4.71</v>
+      </c>
       <c r="AC83" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7919,22 +9392,25 @@
       <c r="AG83">
         <v>-2.560097694396973</v>
       </c>
-      <c r="AH83" t="s">
-        <v>210</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301398</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>9.220000000000001</v>
@@ -7952,7 +9428,7 @@
         <v>51089.63</v>
       </c>
       <c r="J84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -7993,8 +9469,23 @@
       <c r="W84">
         <v>0.38</v>
       </c>
+      <c r="X84">
+        <v>3.03</v>
+      </c>
+      <c r="Y84">
+        <v>57.6</v>
+      </c>
+      <c r="Z84">
+        <v>7.6</v>
+      </c>
       <c r="AC84" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -8002,22 +9493,25 @@
       <c r="AG84">
         <v>0.3675507307052612</v>
       </c>
-      <c r="AH84" t="s">
-        <v>210</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301486</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>0.8100000000000001</v>
@@ -8035,7 +9529,7 @@
         <v>86792.28</v>
       </c>
       <c r="J85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K85">
         <v>4</v>
@@ -8076,8 +9570,23 @@
       <c r="W85">
         <v>-1.26</v>
       </c>
+      <c r="X85">
+        <v>-5.17</v>
+      </c>
+      <c r="Y85">
+        <v>94</v>
+      </c>
+      <c r="Z85">
+        <v>4.35</v>
+      </c>
       <c r="AC85" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8085,22 +9594,25 @@
       <c r="AG85">
         <v>6.271665573120117</v>
       </c>
-      <c r="AH85" t="s">
-        <v>210</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>301489</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>3.97</v>
@@ -8118,7 +9630,7 @@
         <v>102522.81</v>
       </c>
       <c r="J86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K86">
         <v>13</v>
@@ -8159,8 +9671,23 @@
       <c r="W86">
         <v>0.28</v>
       </c>
+      <c r="X86">
+        <v>6.54</v>
+      </c>
+      <c r="Y86">
+        <v>185</v>
+      </c>
+      <c r="Z86">
+        <v>8.27</v>
+      </c>
       <c r="AC86" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8168,22 +9695,25 @@
       <c r="AG86">
         <v>-1.708614349365234</v>
       </c>
-      <c r="AH86" t="s">
-        <v>210</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>301511</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>-1.35</v>
@@ -8201,7 +9731,7 @@
         <v>146925.45</v>
       </c>
       <c r="J87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K87">
         <v>40</v>
@@ -8242,8 +9772,23 @@
       <c r="W87">
         <v>-0.41</v>
       </c>
+      <c r="X87">
+        <v>2.49</v>
+      </c>
+      <c r="Y87">
+        <v>41.16</v>
+      </c>
+      <c r="Z87">
+        <v>2.39</v>
+      </c>
       <c r="AC87" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8251,22 +9796,25 @@
       <c r="AG87">
         <v>1.64608359336853</v>
       </c>
-      <c r="AH87" t="s">
-        <v>210</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>301526</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>5.8</v>
@@ -8284,7 +9832,7 @@
         <v>204928.2</v>
       </c>
       <c r="J88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K88">
         <v>8</v>
@@ -8325,8 +9873,23 @@
       <c r="W88">
         <v>-2.34</v>
       </c>
+      <c r="X88">
+        <v>-6.28</v>
+      </c>
+      <c r="Y88">
+        <v>7.1</v>
+      </c>
+      <c r="Z88">
+        <v>5.19</v>
+      </c>
       <c r="AC88" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>1</v>
@@ -8334,22 +9897,25 @@
       <c r="AG88">
         <v>-9.778575897216797</v>
       </c>
-      <c r="AH88" t="s">
-        <v>210</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>301626</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>12.5</v>
@@ -8367,7 +9933,7 @@
         <v>53840.06</v>
       </c>
       <c r="J89" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -8408,8 +9974,23 @@
       <c r="W89">
         <v>0.78</v>
       </c>
+      <c r="X89">
+        <v>-1.08</v>
+      </c>
+      <c r="Y89">
+        <v>159.83</v>
+      </c>
+      <c r="Z89">
+        <v>-1.64</v>
+      </c>
       <c r="AC89" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8417,22 +9998,25 @@
       <c r="AG89">
         <v>2.890920400619507</v>
       </c>
-      <c r="AH89" t="s">
-        <v>210</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688035</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>13.44</v>
@@ -8450,7 +10034,7 @@
         <v>48539.48</v>
       </c>
       <c r="J90" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -8491,8 +10075,23 @@
       <c r="W90">
         <v>0.65</v>
       </c>
+      <c r="X90">
+        <v>5.9</v>
+      </c>
+      <c r="Y90">
+        <v>65.3</v>
+      </c>
+      <c r="Z90">
+        <v>17.36</v>
+      </c>
       <c r="AC90" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>1</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8500,22 +10099,25 @@
       <c r="AG90">
         <v>6.045477867126465</v>
       </c>
-      <c r="AH90" t="s">
-        <v>210</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688108</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>18.92</v>
@@ -8533,7 +10135,7 @@
         <v>179939.25</v>
       </c>
       <c r="J91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K91">
         <v>6</v>
@@ -8574,8 +10176,23 @@
       <c r="W91">
         <v>0.32</v>
       </c>
+      <c r="X91">
+        <v>-2.56</v>
+      </c>
+      <c r="Y91">
+        <v>47</v>
+      </c>
+      <c r="Z91">
+        <v>14.33</v>
+      </c>
       <c r="AC91" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>1</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8583,22 +10200,25 @@
       <c r="AG91">
         <v>-7.371880054473877</v>
       </c>
-      <c r="AH91" t="s">
-        <v>210</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688110</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>6.89</v>
@@ -8616,7 +10236,7 @@
         <v>264008.88</v>
       </c>
       <c r="J92" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K92">
         <v>15</v>
@@ -8657,8 +10277,23 @@
       <c r="W92">
         <v>-0.09</v>
       </c>
+      <c r="X92">
+        <v>-1.81</v>
+      </c>
+      <c r="Y92">
+        <v>103.98</v>
+      </c>
+      <c r="Z92">
+        <v>0.1</v>
+      </c>
       <c r="AC92" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8666,22 +10301,25 @@
       <c r="AG92">
         <v>9.518314361572266</v>
       </c>
-      <c r="AH92" t="s">
-        <v>210</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688146</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>-2.67</v>
@@ -8699,7 +10337,7 @@
         <v>61923.12</v>
       </c>
       <c r="J93" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K93">
         <v>4</v>
@@ -8740,8 +10378,23 @@
       <c r="W93">
         <v>-0.89</v>
       </c>
+      <c r="X93">
+        <v>-2.13</v>
+      </c>
+      <c r="Y93">
+        <v>41.51</v>
+      </c>
+      <c r="Z93">
+        <v>1.69</v>
+      </c>
       <c r="AC93" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8749,22 +10402,25 @@
       <c r="AG93">
         <v>0.6341823935508728</v>
       </c>
-      <c r="AH93" t="s">
-        <v>210</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688147</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>12.06</v>
@@ -8782,7 +10438,7 @@
         <v>49212.6</v>
       </c>
       <c r="J94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -8823,8 +10479,23 @@
       <c r="W94">
         <v>0.65</v>
       </c>
+      <c r="X94">
+        <v>-1.71</v>
+      </c>
+      <c r="Y94">
+        <v>38.38</v>
+      </c>
+      <c r="Z94">
+        <v>-0.72</v>
+      </c>
       <c r="AC94" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8832,22 +10503,25 @@
       <c r="AG94">
         <v>1.98623788356781</v>
       </c>
-      <c r="AH94" t="s">
-        <v>210</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688167</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>15.62</v>
@@ -8865,7 +10539,7 @@
         <v>67384.41</v>
       </c>
       <c r="J95" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K95">
         <v>9</v>
@@ -8906,8 +10580,23 @@
       <c r="W95">
         <v>0.29</v>
       </c>
+      <c r="X95">
+        <v>3.83</v>
+      </c>
+      <c r="Y95">
+        <v>122.58</v>
+      </c>
+      <c r="Z95">
+        <v>6.5</v>
+      </c>
       <c r="AC95" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8915,22 +10604,25 @@
       <c r="AG95">
         <v>11.34975528717041</v>
       </c>
-      <c r="AH95" t="s">
-        <v>210</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688195</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>19.99</v>
@@ -8948,7 +10640,7 @@
         <v>84588.73</v>
       </c>
       <c r="J96" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -8989,8 +10681,23 @@
       <c r="W96">
         <v>1.24</v>
       </c>
+      <c r="X96">
+        <v>4.22</v>
+      </c>
+      <c r="Y96">
+        <v>75.58</v>
+      </c>
+      <c r="Z96">
+        <v>16.82</v>
+      </c>
       <c r="AC96" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD96">
+        <v>1</v>
+      </c>
+      <c r="AE96">
+        <v>1</v>
       </c>
       <c r="AF96">
         <v>1</v>
@@ -8998,22 +10705,25 @@
       <c r="AG96">
         <v>10.02065753936768</v>
       </c>
-      <c r="AH96" t="s">
-        <v>211</v>
+      <c r="AH96">
+        <v>1</v>
+      </c>
+      <c r="AI96">
+        <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688199</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>-1.44</v>
@@ -9031,7 +10741,7 @@
         <v>43784.33</v>
       </c>
       <c r="J97" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K97">
         <v>4</v>
@@ -9072,8 +10782,23 @@
       <c r="W97">
         <v>0.14</v>
       </c>
+      <c r="X97">
+        <v>-3.13</v>
+      </c>
+      <c r="Y97">
+        <v>30.8</v>
+      </c>
+      <c r="Z97">
+        <v>2.05</v>
+      </c>
       <c r="AC97" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9081,22 +10806,25 @@
       <c r="AG97">
         <v>6.82085132598877</v>
       </c>
-      <c r="AH97" t="s">
-        <v>210</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688202</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>0.62</v>
@@ -9114,7 +10842,7 @@
         <v>32263.77</v>
       </c>
       <c r="J98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K98">
         <v>4</v>
@@ -9155,8 +10883,23 @@
       <c r="W98">
         <v>-0.32</v>
       </c>
+      <c r="X98">
+        <v>-3.7</v>
+      </c>
+      <c r="Y98">
+        <v>70.39</v>
+      </c>
+      <c r="Z98">
+        <v>6.51</v>
+      </c>
       <c r="AC98" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9164,22 +10907,25 @@
       <c r="AG98">
         <v>2.209529638290405</v>
       </c>
-      <c r="AH98" t="s">
-        <v>210</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688261</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>16.87</v>
@@ -9197,7 +10943,7 @@
         <v>68155.42</v>
       </c>
       <c r="J99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -9238,8 +10984,23 @@
       <c r="W99">
         <v>0.46</v>
       </c>
+      <c r="X99">
+        <v>-0.55</v>
+      </c>
+      <c r="Y99">
+        <v>71.41</v>
+      </c>
+      <c r="Z99">
+        <v>-1.34</v>
+      </c>
       <c r="AC99" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9247,22 +11008,25 @@
       <c r="AG99">
         <v>2.413334369659424</v>
       </c>
-      <c r="AH99" t="s">
-        <v>210</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688270</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>2.96</v>
@@ -9280,7 +11044,7 @@
         <v>84002.57000000001</v>
       </c>
       <c r="J100" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K100">
         <v>4</v>
@@ -9321,8 +11085,23 @@
       <c r="W100">
         <v>-0.1</v>
       </c>
+      <c r="X100">
+        <v>5.01</v>
+      </c>
+      <c r="Y100">
+        <v>73.31</v>
+      </c>
+      <c r="Z100">
+        <v>5.54</v>
+      </c>
       <c r="AC100" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9330,22 +11109,25 @@
       <c r="AG100">
         <v>10.68829727172852</v>
       </c>
-      <c r="AH100" t="s">
-        <v>210</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688273</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>-1.96</v>
@@ -9363,7 +11145,7 @@
         <v>18580.88</v>
       </c>
       <c r="J101" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K101">
         <v>5</v>
@@ -9404,8 +11186,23 @@
       <c r="W101">
         <v>-1.55</v>
       </c>
+      <c r="X101">
+        <v>-0.78</v>
+      </c>
+      <c r="Y101">
+        <v>49.4</v>
+      </c>
+      <c r="Z101">
+        <v>5.22</v>
+      </c>
       <c r="AC101" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9413,22 +11210,25 @@
       <c r="AG101">
         <v>3.446887731552124</v>
       </c>
-      <c r="AH101" t="s">
-        <v>210</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688291</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>11.23</v>
@@ -9446,7 +11246,7 @@
         <v>31697.04</v>
       </c>
       <c r="J102" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K102">
         <v>3</v>
@@ -9487,8 +11287,23 @@
       <c r="W102">
         <v>2.02</v>
       </c>
+      <c r="X102">
+        <v>-4.78</v>
+      </c>
+      <c r="Y102">
+        <v>41.11</v>
+      </c>
+      <c r="Z102">
+        <v>-1.18</v>
+      </c>
       <c r="AC102" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9496,22 +11311,25 @@
       <c r="AG102">
         <v>1.59463906288147</v>
       </c>
-      <c r="AH102" t="s">
-        <v>210</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>688313</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>16.47</v>
@@ -9529,7 +11347,7 @@
         <v>319407.87</v>
       </c>
       <c r="J103" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K103">
         <v>5</v>
@@ -9570,8 +11388,23 @@
       <c r="W103">
         <v>-0.41</v>
       </c>
+      <c r="X103">
+        <v>-1.5</v>
+      </c>
+      <c r="Y103">
+        <v>67.17</v>
+      </c>
+      <c r="Z103">
+        <v>2.8</v>
+      </c>
       <c r="AC103" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -9579,22 +11412,25 @@
       <c r="AG103">
         <v>4.326748847961426</v>
       </c>
-      <c r="AH103" t="s">
-        <v>210</v>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>688379</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>9.779999999999999</v>
@@ -9612,7 +11448,7 @@
         <v>41307.39</v>
       </c>
       <c r="J104" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K104">
         <v>7</v>
@@ -9653,8 +11489,23 @@
       <c r="W104">
         <v>-0.13</v>
       </c>
+      <c r="X104">
+        <v>-1.35</v>
+      </c>
+      <c r="Y104">
+        <v>67.53</v>
+      </c>
+      <c r="Z104">
+        <v>3.42</v>
+      </c>
       <c r="AC104" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -9662,22 +11513,25 @@
       <c r="AG104">
         <v>6.114915370941162</v>
       </c>
-      <c r="AH104" t="s">
-        <v>210</v>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>688401</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105">
         <v>-0.2</v>
@@ -9695,7 +11549,7 @@
         <v>28150.56</v>
       </c>
       <c r="J105" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9736,8 +11590,23 @@
       <c r="W105">
         <v>0.14</v>
       </c>
+      <c r="X105">
+        <v>-2.66</v>
+      </c>
+      <c r="Y105">
+        <v>45.01</v>
+      </c>
+      <c r="Z105">
+        <v>-0.31</v>
+      </c>
       <c r="AC105" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -9745,22 +11614,25 @@
       <c r="AG105">
         <v>-6.24519681930542</v>
       </c>
-      <c r="AH105" t="s">
-        <v>210</v>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106">
         <v>688448</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106">
         <v>15.35</v>
@@ -9778,7 +11650,7 @@
         <v>49162.9</v>
       </c>
       <c r="J106" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K106">
         <v>4</v>
@@ -9819,8 +11691,23 @@
       <c r="W106">
         <v>1.6</v>
       </c>
+      <c r="X106">
+        <v>0.25</v>
+      </c>
+      <c r="Y106">
+        <v>69.16</v>
+      </c>
+      <c r="Z106">
+        <v>6.99</v>
+      </c>
       <c r="AC106" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -9828,22 +11715,25 @@
       <c r="AG106">
         <v>-3.072113275527954</v>
       </c>
-      <c r="AH106" t="s">
-        <v>210</v>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>688498</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107">
         <v>6.69</v>
@@ -9861,7 +11751,7 @@
         <v>79952.67999999999</v>
       </c>
       <c r="J107" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K107">
         <v>5</v>
@@ -9902,8 +11792,23 @@
       <c r="W107">
         <v>0.36</v>
       </c>
+      <c r="X107">
+        <v>-0.72</v>
+      </c>
+      <c r="Y107">
+        <v>292.02</v>
+      </c>
+      <c r="Z107">
+        <v>2.94</v>
+      </c>
       <c r="AC107" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -9911,22 +11816,25 @@
       <c r="AG107">
         <v>-1.036189556121826</v>
       </c>
-      <c r="AH107" t="s">
-        <v>210</v>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108">
         <v>688499</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108">
         <v>4.87</v>
@@ -9944,7 +11852,7 @@
         <v>53428.26</v>
       </c>
       <c r="J108" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K108">
         <v>45</v>
@@ -9985,8 +11893,23 @@
       <c r="W108">
         <v>-0.2</v>
       </c>
+      <c r="X108">
+        <v>-0.19</v>
+      </c>
+      <c r="Y108">
+        <v>64.18000000000001</v>
+      </c>
+      <c r="Z108">
+        <v>3.18</v>
+      </c>
       <c r="AC108" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -9994,22 +11917,25 @@
       <c r="AG108">
         <v>7.033340454101562</v>
       </c>
-      <c r="AH108" t="s">
-        <v>210</v>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>688502</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109">
         <v>5.64</v>
@@ -10027,7 +11953,7 @@
         <v>39115.9</v>
       </c>
       <c r="J109" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K109">
         <v>16</v>
@@ -10068,8 +11994,23 @@
       <c r="W109">
         <v>0.27</v>
       </c>
+      <c r="X109">
+        <v>-2.11</v>
+      </c>
+      <c r="Y109">
+        <v>395</v>
+      </c>
+      <c r="Z109">
+        <v>5.79</v>
+      </c>
       <c r="AC109" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -10077,22 +12018,25 @@
       <c r="AG109">
         <v>-1.315365672111511</v>
       </c>
-      <c r="AH109" t="s">
-        <v>210</v>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>688556</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E110">
         <v>4.62</v>
@@ -10110,7 +12054,7 @@
         <v>44552.54</v>
       </c>
       <c r="J110" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K110">
         <v>16</v>
@@ -10151,8 +12095,23 @@
       <c r="W110">
         <v>0.23</v>
       </c>
+      <c r="X110">
+        <v>9.68</v>
+      </c>
+      <c r="Y110">
+        <v>13.15</v>
+      </c>
+      <c r="Z110">
+        <v>9.49</v>
+      </c>
       <c r="AC110" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>1</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -10160,22 +12119,25 @@
       <c r="AG110">
         <v>2.190602779388428</v>
       </c>
-      <c r="AH110" t="s">
-        <v>210</v>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C111">
         <v>688584</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111">
         <v>0.04</v>
@@ -10193,7 +12155,7 @@
         <v>49387.47</v>
       </c>
       <c r="J111" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K111">
         <v>4</v>
@@ -10234,8 +12196,23 @@
       <c r="W111">
         <v>-0.27</v>
       </c>
+      <c r="X111">
+        <v>-7.72</v>
+      </c>
+      <c r="Y111">
+        <v>26.83</v>
+      </c>
+      <c r="Z111">
+        <v>0.11</v>
+      </c>
       <c r="AC111" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
       </c>
       <c r="AF111">
         <v>0</v>
@@ -10243,22 +12220,25 @@
       <c r="AG111">
         <v>1.990978717803955</v>
       </c>
-      <c r="AH111" t="s">
-        <v>210</v>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C112">
         <v>688591</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E112">
         <v>0.62</v>
@@ -10276,7 +12256,7 @@
         <v>46521.72</v>
       </c>
       <c r="J112" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K112">
         <v>4</v>
@@ -10317,8 +12297,23 @@
       <c r="W112">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X112">
+        <v>-6.67</v>
+      </c>
+      <c r="Y112">
+        <v>54</v>
+      </c>
+      <c r="Z112">
+        <v>0.78</v>
+      </c>
       <c r="AC112" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
       </c>
       <c r="AF112">
         <v>0</v>
@@ -10326,22 +12321,25 @@
       <c r="AG112">
         <v>3.540797710418701</v>
       </c>
-      <c r="AH112" t="s">
-        <v>210</v>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C113">
         <v>688603</v>
       </c>
       <c r="D113" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E113">
         <v>20</v>
@@ -10359,7 +12357,7 @@
         <v>60655.03</v>
       </c>
       <c r="J113" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K113">
         <v>4</v>
@@ -10400,8 +12398,23 @@
       <c r="W113">
         <v>0.24</v>
       </c>
+      <c r="X113">
+        <v>-2.75</v>
+      </c>
+      <c r="Y113">
+        <v>106.45</v>
+      </c>
+      <c r="Z113">
+        <v>10</v>
+      </c>
       <c r="AC113" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD113">
+        <v>1</v>
+      </c>
+      <c r="AE113">
+        <v>1</v>
       </c>
       <c r="AF113">
         <v>1</v>
@@ -10409,22 +12422,25 @@
       <c r="AG113">
         <v>9.070231437683105</v>
       </c>
-      <c r="AH113" t="s">
-        <v>211</v>
+      <c r="AH113">
+        <v>1</v>
+      </c>
+      <c r="AI113">
+        <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C114">
         <v>688668</v>
       </c>
       <c r="D114" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E114">
         <v>8.460000000000001</v>
@@ -10442,7 +12458,7 @@
         <v>67114.16</v>
       </c>
       <c r="J114" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K114">
         <v>23</v>
@@ -10483,8 +12499,23 @@
       <c r="W114">
         <v>0.25</v>
       </c>
+      <c r="X114">
+        <v>-6.15</v>
+      </c>
+      <c r="Y114">
+        <v>122.88</v>
+      </c>
+      <c r="Z114">
+        <v>2.99</v>
+      </c>
       <c r="AC114" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
       </c>
       <c r="AF114">
         <v>0</v>
@@ -10492,22 +12523,25 @@
       <c r="AG114">
         <v>4.209425926208496</v>
       </c>
-      <c r="AH114" t="s">
-        <v>210</v>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C115">
         <v>688711</v>
       </c>
       <c r="D115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E115">
         <v>2.78</v>
@@ -10525,7 +12559,7 @@
         <v>30101.53</v>
       </c>
       <c r="J115" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K115">
         <v>9</v>
@@ -10566,8 +12600,23 @@
       <c r="W115">
         <v>-0.12</v>
       </c>
+      <c r="X115">
+        <v>-3.89</v>
+      </c>
+      <c r="Y115">
+        <v>30.83</v>
+      </c>
+      <c r="Z115">
+        <v>4.16</v>
+      </c>
       <c r="AC115" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
       </c>
       <c r="AF115">
         <v>0</v>
@@ -10575,22 +12624,25 @@
       <c r="AG115">
         <v>0.9341468811035156</v>
       </c>
-      <c r="AH115" t="s">
-        <v>210</v>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C116">
         <v>688716</v>
       </c>
       <c r="D116" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E116">
         <v>11.95</v>
@@ -10608,7 +12660,7 @@
         <v>76723.56</v>
       </c>
       <c r="J116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K116">
         <v>3</v>
@@ -10649,8 +12701,23 @@
       <c r="W116">
         <v>-0.28</v>
       </c>
+      <c r="X116">
+        <v>-5.25</v>
+      </c>
+      <c r="Y116">
+        <v>56.68</v>
+      </c>
+      <c r="Z116">
+        <v>1.14</v>
+      </c>
       <c r="AC116" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
       </c>
       <c r="AF116">
         <v>0</v>
@@ -10658,22 +12725,25 @@
       <c r="AG116">
         <v>3.262699604034424</v>
       </c>
-      <c r="AH116" t="s">
-        <v>210</v>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C117">
         <v>688733</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E117">
         <v>-2.69</v>
@@ -10691,7 +12761,7 @@
         <v>63853.09</v>
       </c>
       <c r="J117" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K117">
         <v>3</v>
@@ -10732,8 +12802,23 @@
       <c r="W117">
         <v>-0.58</v>
       </c>
+      <c r="X117">
+        <v>-6.62</v>
+      </c>
+      <c r="Y117">
+        <v>31</v>
+      </c>
+      <c r="Z117">
+        <v>-2.58</v>
+      </c>
       <c r="AC117" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -10741,22 +12826,25 @@
       <c r="AG117">
         <v>7.774391174316406</v>
       </c>
-      <c r="AH117" t="s">
-        <v>210</v>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C118">
         <v>688800</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E118">
         <v>2.79</v>
@@ -10774,7 +12862,7 @@
         <v>123078.36</v>
       </c>
       <c r="J118" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K118">
         <v>10</v>
@@ -10815,8 +12903,23 @@
       <c r="W118">
         <v>0.09</v>
       </c>
+      <c r="X118">
+        <v>3.64</v>
+      </c>
+      <c r="Y118">
+        <v>85</v>
+      </c>
+      <c r="Z118">
+        <v>6.29</v>
+      </c>
       <c r="AC118" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -10824,8 +12927,11 @@
       <c r="AG118">
         <v>21.78863334655762</v>
       </c>
-      <c r="AH118" t="s">
-        <v>210</v>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
